--- a/src/analysis_examples/circadb/results_jtk/cosinor_10367673_plekhg1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10367673_plekhg1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.3139244066251285, 0.4091364573449671]</t>
+          <t>[0.31463823933621277, 0.40842262463388285]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.967937090010309e-13</v>
+        <v>2.957634137601417e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>3.967937090010309e-13</v>
+        <v>2.957634137601417e-13</v>
       </c>
       <c r="O2" t="n">
         <v>-1.069210712933463</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.40671145232382383, 0.45804424885085243]</t>
+          <t>[0.4067242953372729, 0.45803140583740337]</t>
         </is>
       </c>
       <c r="U2" t="n">
